--- a/bin/print/ori/CollectionReport.xlsx
+++ b/bin/print/ori/CollectionReport.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Details" sheetId="1" r:id="rId1"/>
+    <sheet name="Summery Chart" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Collection_Report" localSheetId="0">Sheet1!$A$1:$J$1066</definedName>
+    <definedName name="Collection_Report" localSheetId="0">Details!$A$1:$J$1018</definedName>
+    <definedName name="CollectionChart_1" localSheetId="1">'Summery Chart'!$A$31:$J$46</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -34,6 +36,22 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="2" name="CollectionChart" type="6" refreshedVersion="5" background="1" refreshOnLoad="1">
+    <textPr prompt="0" codePage="437" sourceFile="E:\ICS\bin\print\CollectionChart.txt" tab="0" delimiter="|">
+      <textFields count="10">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
@@ -43,10 +61,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +110,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -119,7 +153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -169,6 +203,24 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -187,8 +239,1723 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Collection Summery</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summery Chart'!$G$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&lt;=7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="50000"/>
+                    <a:satMod val="300000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="35000">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="37000"/>
+                    <a:satMod val="300000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="15000"/>
+                    <a:satMod val="350000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="1"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="38000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Summery Chart'!$B$33:$B$45</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Other Custermer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Yatalamattha Banbarapura</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Kottawa Yatalamatta</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Nagoda Unanvitiya</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ovilana Labuduwa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Thalagaha Kuruduwatta</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Wanduramba Ovilana</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Dangedara  Elliot Road</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Kuruduwatta  Bataduwa</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Narawala  Ambalanwatta</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Milidduwa Magalle</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Kithulampitiya Karapitiya</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Kuruduwatta Kottawa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summery Chart'!$G$33:$G$45</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summery Chart'!$H$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7&lt;=14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:tint val="50000"/>
+                    <a:satMod val="300000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="35000">
+                  <a:schemeClr val="accent2">
+                    <a:tint val="37000"/>
+                    <a:satMod val="300000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:tint val="15000"/>
+                    <a:satMod val="350000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="1"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="38000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Summery Chart'!$B$33:$B$45</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Other Custermer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Yatalamattha Banbarapura</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Kottawa Yatalamatta</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Nagoda Unanvitiya</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ovilana Labuduwa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Thalagaha Kuruduwatta</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Wanduramba Ovilana</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Dangedara  Elliot Road</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Kuruduwatta  Bataduwa</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Narawala  Ambalanwatta</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Milidduwa Magalle</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Kithulampitiya Karapitiya</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Kuruduwatta Kottawa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summery Chart'!$H$33:$H$45</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summery Chart'!$I$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14&lt;=21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:tint val="50000"/>
+                    <a:satMod val="300000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="35000">
+                  <a:schemeClr val="accent3">
+                    <a:tint val="37000"/>
+                    <a:satMod val="300000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:tint val="15000"/>
+                    <a:satMod val="350000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="1"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="38000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Summery Chart'!$B$33:$B$45</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Other Custermer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Yatalamattha Banbarapura</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Kottawa Yatalamatta</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Nagoda Unanvitiya</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ovilana Labuduwa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Thalagaha Kuruduwatta</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Wanduramba Ovilana</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Dangedara  Elliot Road</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Kuruduwatta  Bataduwa</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Narawala  Ambalanwatta</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Milidduwa Magalle</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Kithulampitiya Karapitiya</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Kuruduwatta Kottawa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summery Chart'!$I$33:$I$45</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summery Chart'!$J$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>21&lt;</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:tint val="50000"/>
+                    <a:satMod val="300000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="35000">
+                  <a:schemeClr val="accent4">
+                    <a:tint val="37000"/>
+                    <a:satMod val="300000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:tint val="15000"/>
+                    <a:satMod val="350000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="1"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="38000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Summery Chart'!$B$33:$B$45</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Other Custermer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Yatalamattha Banbarapura</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Kottawa Yatalamatta</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Nagoda Unanvitiya</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ovilana Labuduwa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Thalagaha Kuruduwatta</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Wanduramba Ovilana</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Dangedara  Elliot Road</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Kuruduwatta  Bataduwa</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Narawala  Ambalanwatta</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Milidduwa Magalle</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Kithulampitiya Karapitiya</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Kuruduwatta Kottawa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summery Chart'!$J$33:$J$45</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="302939376"/>
+        <c:axId val="302942904"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="302939376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="302942904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="302942904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="302939376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="301">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Collection_Report" refreshOnLoad="1" growShrinkType="overwriteClear" removeDataOnSave="1" adjustColumnWidth="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="CollectionChart_1" refreshOnLoad="1" growShrinkType="overwriteClear" removeDataOnSave="1" adjustColumnWidth="0" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -480,9 +2247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3639"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -2625,26 +4391,26 @@
       <c r="I215" s="11"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B216" s="8"/>
       <c r="C216" s="13"/>
       <c r="D216" s="9"/>
       <c r="E216" s="7"/>
       <c r="F216" s="10"/>
       <c r="G216" s="10"/>
       <c r="H216" s="10"/>
-      <c r="I216" s="11"/>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" s="16"/>
       <c r="C217" s="13"/>
-      <c r="D217" s="9"/>
-      <c r="E217" s="7"/>
-      <c r="F217" s="10"/>
-      <c r="G217" s="10"/>
-      <c r="H217" s="10"/>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A218" s="16"/>
+      <c r="B218" s="8"/>
       <c r="C218" s="13"/>
+      <c r="D218" s="9"/>
+      <c r="E218" s="7"/>
+      <c r="F218" s="10"/>
+      <c r="G218" s="10"/>
+      <c r="H218" s="10"/>
+      <c r="I218" s="11"/>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B219" s="8"/>
@@ -3567,26 +5333,26 @@
       <c r="I310" s="11"/>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B311" s="8"/>
       <c r="C311" s="13"/>
       <c r="D311" s="9"/>
       <c r="E311" s="7"/>
       <c r="F311" s="10"/>
       <c r="G311" s="10"/>
       <c r="H311" s="10"/>
-      <c r="I311" s="11"/>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A312" s="16"/>
       <c r="C312" s="13"/>
-      <c r="D312" s="9"/>
-      <c r="E312" s="7"/>
-      <c r="F312" s="10"/>
-      <c r="G312" s="10"/>
-      <c r="H312" s="10"/>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A313" s="16"/>
+      <c r="B313" s="8"/>
       <c r="C313" s="13"/>
+      <c r="D313" s="9"/>
+      <c r="E313" s="7"/>
+      <c r="F313" s="10"/>
+      <c r="G313" s="10"/>
+      <c r="H313" s="10"/>
+      <c r="I313" s="11"/>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B314" s="8"/>
@@ -4429,26 +6195,26 @@
       <c r="I397" s="11"/>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B398" s="8"/>
       <c r="C398" s="13"/>
       <c r="D398" s="9"/>
       <c r="E398" s="7"/>
       <c r="F398" s="10"/>
       <c r="G398" s="10"/>
       <c r="H398" s="10"/>
-      <c r="I398" s="11"/>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A399" s="16"/>
       <c r="C399" s="13"/>
-      <c r="D399" s="9"/>
-      <c r="E399" s="7"/>
-      <c r="F399" s="10"/>
-      <c r="G399" s="10"/>
-      <c r="H399" s="10"/>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A400" s="16"/>
+      <c r="B400" s="8"/>
       <c r="C400" s="13"/>
+      <c r="D400" s="9"/>
+      <c r="E400" s="7"/>
+      <c r="F400" s="10"/>
+      <c r="G400" s="10"/>
+      <c r="H400" s="10"/>
+      <c r="I400" s="11"/>
     </row>
     <row r="401" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B401" s="8"/>
@@ -4971,26 +6737,26 @@
       <c r="I452" s="11"/>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B453" s="8"/>
       <c r="C453" s="13"/>
       <c r="D453" s="9"/>
       <c r="E453" s="7"/>
       <c r="F453" s="10"/>
       <c r="G453" s="10"/>
       <c r="H453" s="10"/>
-      <c r="I453" s="11"/>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A454" s="16"/>
       <c r="C454" s="13"/>
-      <c r="D454" s="9"/>
-      <c r="E454" s="7"/>
-      <c r="F454" s="10"/>
-      <c r="G454" s="10"/>
-      <c r="H454" s="10"/>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A455" s="16"/>
+      <c r="B455" s="8"/>
       <c r="C455" s="13"/>
+      <c r="D455" s="9"/>
+      <c r="E455" s="7"/>
+      <c r="F455" s="10"/>
+      <c r="G455" s="10"/>
+      <c r="H455" s="10"/>
+      <c r="I455" s="11"/>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B456" s="8"/>
@@ -5562,7 +7328,7 @@
       <c r="H512" s="10"/>
       <c r="I512" s="11"/>
     </row>
-    <row r="513" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B513" s="8"/>
       <c r="C513" s="13"/>
       <c r="D513" s="9"/>
@@ -5572,7 +7338,7 @@
       <c r="H513" s="10"/>
       <c r="I513" s="11"/>
     </row>
-    <row r="514" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B514" s="8"/>
       <c r="C514" s="13"/>
       <c r="D514" s="9"/>
@@ -5582,7 +7348,7 @@
       <c r="H514" s="10"/>
       <c r="I514" s="11"/>
     </row>
-    <row r="515" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B515" s="8"/>
       <c r="C515" s="13"/>
       <c r="D515" s="9"/>
@@ -5592,7 +7358,7 @@
       <c r="H515" s="10"/>
       <c r="I515" s="11"/>
     </row>
-    <row r="516" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B516" s="8"/>
       <c r="C516" s="13"/>
       <c r="D516" s="9"/>
@@ -5602,7 +7368,7 @@
       <c r="H516" s="10"/>
       <c r="I516" s="11"/>
     </row>
-    <row r="517" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B517" s="8"/>
       <c r="C517" s="13"/>
       <c r="D517" s="9"/>
@@ -5612,7 +7378,7 @@
       <c r="H517" s="10"/>
       <c r="I517" s="11"/>
     </row>
-    <row r="518" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B518" s="8"/>
       <c r="C518" s="13"/>
       <c r="D518" s="9"/>
@@ -5622,7 +7388,7 @@
       <c r="H518" s="10"/>
       <c r="I518" s="11"/>
     </row>
-    <row r="519" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B519" s="8"/>
       <c r="C519" s="13"/>
       <c r="D519" s="9"/>
@@ -5632,7 +7398,7 @@
       <c r="H519" s="10"/>
       <c r="I519" s="11"/>
     </row>
-    <row r="520" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B520" s="8"/>
       <c r="C520" s="13"/>
       <c r="D520" s="9"/>
@@ -5642,7 +7408,7 @@
       <c r="H520" s="10"/>
       <c r="I520" s="11"/>
     </row>
-    <row r="521" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B521" s="8"/>
       <c r="C521" s="13"/>
       <c r="D521" s="9"/>
@@ -5652,7 +7418,7 @@
       <c r="H521" s="10"/>
       <c r="I521" s="11"/>
     </row>
-    <row r="522" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B522" s="8"/>
       <c r="C522" s="13"/>
       <c r="D522" s="9"/>
@@ -5662,7 +7428,7 @@
       <c r="H522" s="10"/>
       <c r="I522" s="11"/>
     </row>
-    <row r="523" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B523" s="8"/>
       <c r="C523" s="13"/>
       <c r="D523" s="9"/>
@@ -5672,27 +7438,19 @@
       <c r="H523" s="10"/>
       <c r="I523" s="11"/>
     </row>
-    <row r="524" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B524" s="8"/>
+    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C524" s="13"/>
       <c r="D524" s="9"/>
       <c r="E524" s="7"/>
       <c r="F524" s="10"/>
       <c r="G524" s="10"/>
       <c r="H524" s="10"/>
-      <c r="I524" s="11"/>
-    </row>
-    <row r="525" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B525" s="8"/>
+    </row>
+    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A525" s="16"/>
       <c r="C525" s="13"/>
-      <c r="D525" s="9"/>
-      <c r="E525" s="7"/>
-      <c r="F525" s="10"/>
-      <c r="G525" s="10"/>
-      <c r="H525" s="10"/>
-      <c r="I525" s="11"/>
-    </row>
-    <row r="526" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B526" s="8"/>
       <c r="C526" s="13"/>
       <c r="D526" s="9"/>
@@ -5702,7 +7460,7 @@
       <c r="H526" s="10"/>
       <c r="I526" s="11"/>
     </row>
-    <row r="527" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B527" s="8"/>
       <c r="C527" s="13"/>
       <c r="D527" s="9"/>
@@ -5712,7 +7470,7 @@
       <c r="H527" s="10"/>
       <c r="I527" s="11"/>
     </row>
-    <row r="528" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B528" s="8"/>
       <c r="C528" s="13"/>
       <c r="D528" s="9"/>
@@ -5882,7 +7640,7 @@
       <c r="H544" s="10"/>
       <c r="I544" s="11"/>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B545" s="8"/>
       <c r="C545" s="13"/>
       <c r="D545" s="9"/>
@@ -5892,7 +7650,7 @@
       <c r="H545" s="10"/>
       <c r="I545" s="11"/>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B546" s="8"/>
       <c r="C546" s="13"/>
       <c r="D546" s="9"/>
@@ -5902,7 +7660,7 @@
       <c r="H546" s="10"/>
       <c r="I546" s="11"/>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B547" s="8"/>
       <c r="C547" s="13"/>
       <c r="D547" s="9"/>
@@ -5912,7 +7670,7 @@
       <c r="H547" s="10"/>
       <c r="I547" s="11"/>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B548" s="8"/>
       <c r="C548" s="13"/>
       <c r="D548" s="9"/>
@@ -5922,7 +7680,7 @@
       <c r="H548" s="10"/>
       <c r="I548" s="11"/>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B549" s="8"/>
       <c r="C549" s="13"/>
       <c r="D549" s="9"/>
@@ -5932,7 +7690,7 @@
       <c r="H549" s="10"/>
       <c r="I549" s="11"/>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B550" s="8"/>
       <c r="C550" s="13"/>
       <c r="D550" s="9"/>
@@ -5942,19 +7700,27 @@
       <c r="H550" s="10"/>
       <c r="I550" s="11"/>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B551" s="8"/>
       <c r="C551" s="13"/>
       <c r="D551" s="9"/>
       <c r="E551" s="7"/>
       <c r="F551" s="10"/>
       <c r="G551" s="10"/>
       <c r="H551" s="10"/>
-    </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A552" s="16"/>
+      <c r="I551" s="11"/>
+    </row>
+    <row r="552" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B552" s="8"/>
       <c r="C552" s="13"/>
-    </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D552" s="9"/>
+      <c r="E552" s="7"/>
+      <c r="F552" s="10"/>
+      <c r="G552" s="10"/>
+      <c r="H552" s="10"/>
+      <c r="I552" s="11"/>
+    </row>
+    <row r="553" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B553" s="8"/>
       <c r="C553" s="13"/>
       <c r="D553" s="9"/>
@@ -5964,7 +7730,7 @@
       <c r="H553" s="10"/>
       <c r="I553" s="11"/>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B554" s="8"/>
       <c r="C554" s="13"/>
       <c r="D554" s="9"/>
@@ -5974,7 +7740,7 @@
       <c r="H554" s="10"/>
       <c r="I554" s="11"/>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B555" s="8"/>
       <c r="C555" s="13"/>
       <c r="D555" s="9"/>
@@ -5984,7 +7750,7 @@
       <c r="H555" s="10"/>
       <c r="I555" s="11"/>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B556" s="8"/>
       <c r="C556" s="13"/>
       <c r="D556" s="9"/>
@@ -5994,7 +7760,7 @@
       <c r="H556" s="10"/>
       <c r="I556" s="11"/>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B557" s="8"/>
       <c r="C557" s="13"/>
       <c r="D557" s="9"/>
@@ -6004,7 +7770,7 @@
       <c r="H557" s="10"/>
       <c r="I557" s="11"/>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B558" s="8"/>
       <c r="C558" s="13"/>
       <c r="D558" s="9"/>
@@ -6014,7 +7780,7 @@
       <c r="H558" s="10"/>
       <c r="I558" s="11"/>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B559" s="8"/>
       <c r="C559" s="13"/>
       <c r="D559" s="9"/>
@@ -6024,7 +7790,7 @@
       <c r="H559" s="10"/>
       <c r="I559" s="11"/>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B560" s="8"/>
       <c r="C560" s="13"/>
       <c r="D560" s="9"/>
@@ -6505,26 +8271,18 @@
       <c r="I607" s="11"/>
     </row>
     <row r="608" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B608" s="8"/>
       <c r="C608" s="13"/>
       <c r="D608" s="9"/>
       <c r="E608" s="7"/>
       <c r="F608" s="10"/>
       <c r="G608" s="10"/>
       <c r="H608" s="10"/>
-      <c r="I608" s="11"/>
-    </row>
-    <row r="609" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B609" s="8"/>
+    </row>
+    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A609" s="16"/>
       <c r="C609" s="13"/>
-      <c r="D609" s="9"/>
-      <c r="E609" s="7"/>
-      <c r="F609" s="10"/>
-      <c r="G609" s="10"/>
-      <c r="H609" s="10"/>
-      <c r="I609" s="11"/>
-    </row>
-    <row r="610" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B610" s="8"/>
       <c r="C610" s="13"/>
       <c r="D610" s="9"/>
@@ -6534,7 +8292,7 @@
       <c r="H610" s="10"/>
       <c r="I610" s="11"/>
     </row>
-    <row r="611" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B611" s="8"/>
       <c r="C611" s="13"/>
       <c r="D611" s="9"/>
@@ -6544,7 +8302,7 @@
       <c r="H611" s="10"/>
       <c r="I611" s="11"/>
     </row>
-    <row r="612" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B612" s="8"/>
       <c r="C612" s="13"/>
       <c r="D612" s="9"/>
@@ -6554,7 +8312,7 @@
       <c r="H612" s="10"/>
       <c r="I612" s="11"/>
     </row>
-    <row r="613" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B613" s="8"/>
       <c r="C613" s="13"/>
       <c r="D613" s="9"/>
@@ -6564,7 +8322,7 @@
       <c r="H613" s="10"/>
       <c r="I613" s="11"/>
     </row>
-    <row r="614" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B614" s="8"/>
       <c r="C614" s="13"/>
       <c r="D614" s="9"/>
@@ -6574,7 +8332,7 @@
       <c r="H614" s="10"/>
       <c r="I614" s="11"/>
     </row>
-    <row r="615" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B615" s="8"/>
       <c r="C615" s="13"/>
       <c r="D615" s="9"/>
@@ -6584,7 +8342,7 @@
       <c r="H615" s="10"/>
       <c r="I615" s="11"/>
     </row>
-    <row r="616" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B616" s="8"/>
       <c r="C616" s="13"/>
       <c r="D616" s="9"/>
@@ -6594,7 +8352,7 @@
       <c r="H616" s="10"/>
       <c r="I616" s="11"/>
     </row>
-    <row r="617" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B617" s="8"/>
       <c r="C617" s="13"/>
       <c r="D617" s="9"/>
@@ -6604,7 +8362,7 @@
       <c r="H617" s="10"/>
       <c r="I617" s="11"/>
     </row>
-    <row r="618" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B618" s="8"/>
       <c r="C618" s="13"/>
       <c r="D618" s="9"/>
@@ -6614,7 +8372,7 @@
       <c r="H618" s="10"/>
       <c r="I618" s="11"/>
     </row>
-    <row r="619" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B619" s="8"/>
       <c r="C619" s="13"/>
       <c r="D619" s="9"/>
@@ -6624,7 +8382,7 @@
       <c r="H619" s="10"/>
       <c r="I619" s="11"/>
     </row>
-    <row r="620" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B620" s="8"/>
       <c r="C620" s="13"/>
       <c r="D620" s="9"/>
@@ -6634,7 +8392,7 @@
       <c r="H620" s="10"/>
       <c r="I620" s="11"/>
     </row>
-    <row r="621" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B621" s="8"/>
       <c r="C621" s="13"/>
       <c r="D621" s="9"/>
@@ -6644,7 +8402,7 @@
       <c r="H621" s="10"/>
       <c r="I621" s="11"/>
     </row>
-    <row r="622" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B622" s="8"/>
       <c r="C622" s="13"/>
       <c r="D622" s="9"/>
@@ -6654,7 +8412,7 @@
       <c r="H622" s="10"/>
       <c r="I622" s="11"/>
     </row>
-    <row r="623" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B623" s="8"/>
       <c r="C623" s="13"/>
       <c r="D623" s="9"/>
@@ -6664,7 +8422,7 @@
       <c r="H623" s="10"/>
       <c r="I623" s="11"/>
     </row>
-    <row r="624" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B624" s="8"/>
       <c r="C624" s="13"/>
       <c r="D624" s="9"/>
@@ -6674,7 +8432,7 @@
       <c r="H624" s="10"/>
       <c r="I624" s="11"/>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="625" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B625" s="8"/>
       <c r="C625" s="13"/>
       <c r="D625" s="9"/>
@@ -6684,7 +8442,7 @@
       <c r="H625" s="10"/>
       <c r="I625" s="11"/>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="626" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B626" s="8"/>
       <c r="C626" s="13"/>
       <c r="D626" s="9"/>
@@ -6694,7 +8452,7 @@
       <c r="H626" s="10"/>
       <c r="I626" s="11"/>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="627" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B627" s="8"/>
       <c r="C627" s="13"/>
       <c r="D627" s="9"/>
@@ -6704,7 +8462,7 @@
       <c r="H627" s="10"/>
       <c r="I627" s="11"/>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="628" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B628" s="8"/>
       <c r="C628" s="13"/>
       <c r="D628" s="9"/>
@@ -6714,7 +8472,7 @@
       <c r="H628" s="10"/>
       <c r="I628" s="11"/>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="629" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B629" s="8"/>
       <c r="C629" s="13"/>
       <c r="D629" s="9"/>
@@ -6724,7 +8482,7 @@
       <c r="H629" s="10"/>
       <c r="I629" s="11"/>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="630" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B630" s="8"/>
       <c r="C630" s="13"/>
       <c r="D630" s="9"/>
@@ -6734,7 +8492,7 @@
       <c r="H630" s="10"/>
       <c r="I630" s="11"/>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="631" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B631" s="8"/>
       <c r="C631" s="13"/>
       <c r="D631" s="9"/>
@@ -6744,7 +8502,7 @@
       <c r="H631" s="10"/>
       <c r="I631" s="11"/>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="632" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B632" s="8"/>
       <c r="C632" s="13"/>
       <c r="D632" s="9"/>
@@ -6754,7 +8512,7 @@
       <c r="H632" s="10"/>
       <c r="I632" s="11"/>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="633" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B633" s="8"/>
       <c r="C633" s="13"/>
       <c r="D633" s="9"/>
@@ -6764,7 +8522,7 @@
       <c r="H633" s="10"/>
       <c r="I633" s="11"/>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="634" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B634" s="8"/>
       <c r="C634" s="13"/>
       <c r="D634" s="9"/>
@@ -6774,19 +8532,27 @@
       <c r="H634" s="10"/>
       <c r="I634" s="11"/>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="635" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B635" s="8"/>
       <c r="C635" s="13"/>
       <c r="D635" s="9"/>
       <c r="E635" s="7"/>
       <c r="F635" s="10"/>
       <c r="G635" s="10"/>
       <c r="H635" s="10"/>
-    </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A636" s="16"/>
+      <c r="I635" s="11"/>
+    </row>
+    <row r="636" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B636" s="8"/>
       <c r="C636" s="13"/>
-    </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D636" s="9"/>
+      <c r="E636" s="7"/>
+      <c r="F636" s="10"/>
+      <c r="G636" s="10"/>
+      <c r="H636" s="10"/>
+      <c r="I636" s="11"/>
+    </row>
+    <row r="637" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B637" s="8"/>
       <c r="C637" s="13"/>
       <c r="D637" s="9"/>
@@ -6796,7 +8562,7 @@
       <c r="H637" s="10"/>
       <c r="I637" s="11"/>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="638" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B638" s="8"/>
       <c r="C638" s="13"/>
       <c r="D638" s="9"/>
@@ -6806,7 +8572,7 @@
       <c r="H638" s="10"/>
       <c r="I638" s="11"/>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="639" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B639" s="8"/>
       <c r="C639" s="13"/>
       <c r="D639" s="9"/>
@@ -6816,7 +8582,7 @@
       <c r="H639" s="10"/>
       <c r="I639" s="11"/>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="640" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B640" s="8"/>
       <c r="C640" s="13"/>
       <c r="D640" s="9"/>
@@ -7306,27 +9072,19 @@
       <c r="H688" s="10"/>
       <c r="I688" s="11"/>
     </row>
-    <row r="689" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B689" s="8"/>
+    <row r="689" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C689" s="13"/>
       <c r="D689" s="9"/>
       <c r="E689" s="7"/>
       <c r="F689" s="10"/>
       <c r="G689" s="10"/>
       <c r="H689" s="10"/>
-      <c r="I689" s="11"/>
-    </row>
-    <row r="690" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B690" s="8"/>
+    </row>
+    <row r="690" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A690" s="16"/>
       <c r="C690" s="13"/>
-      <c r="D690" s="9"/>
-      <c r="E690" s="7"/>
-      <c r="F690" s="10"/>
-      <c r="G690" s="10"/>
-      <c r="H690" s="10"/>
-      <c r="I690" s="11"/>
-    </row>
-    <row r="691" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="691" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B691" s="8"/>
       <c r="C691" s="13"/>
       <c r="D691" s="9"/>
@@ -7336,7 +9094,7 @@
       <c r="H691" s="10"/>
       <c r="I691" s="11"/>
     </row>
-    <row r="692" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B692" s="8"/>
       <c r="C692" s="13"/>
       <c r="D692" s="9"/>
@@ -7346,7 +9104,7 @@
       <c r="H692" s="10"/>
       <c r="I692" s="11"/>
     </row>
-    <row r="693" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B693" s="8"/>
       <c r="C693" s="13"/>
       <c r="D693" s="9"/>
@@ -7356,7 +9114,7 @@
       <c r="H693" s="10"/>
       <c r="I693" s="11"/>
     </row>
-    <row r="694" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B694" s="8"/>
       <c r="C694" s="13"/>
       <c r="D694" s="9"/>
@@ -7366,7 +9124,7 @@
       <c r="H694" s="10"/>
       <c r="I694" s="11"/>
     </row>
-    <row r="695" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B695" s="8"/>
       <c r="C695" s="13"/>
       <c r="D695" s="9"/>
@@ -7376,7 +9134,7 @@
       <c r="H695" s="10"/>
       <c r="I695" s="11"/>
     </row>
-    <row r="696" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B696" s="8"/>
       <c r="C696" s="13"/>
       <c r="D696" s="9"/>
@@ -7386,7 +9144,7 @@
       <c r="H696" s="10"/>
       <c r="I696" s="11"/>
     </row>
-    <row r="697" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B697" s="8"/>
       <c r="C697" s="13"/>
       <c r="D697" s="9"/>
@@ -7396,7 +9154,7 @@
       <c r="H697" s="10"/>
       <c r="I697" s="11"/>
     </row>
-    <row r="698" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B698" s="8"/>
       <c r="C698" s="13"/>
       <c r="D698" s="9"/>
@@ -7406,7 +9164,7 @@
       <c r="H698" s="10"/>
       <c r="I698" s="11"/>
     </row>
-    <row r="699" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B699" s="8"/>
       <c r="C699" s="13"/>
       <c r="D699" s="9"/>
@@ -7416,7 +9174,7 @@
       <c r="H699" s="10"/>
       <c r="I699" s="11"/>
     </row>
-    <row r="700" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B700" s="8"/>
       <c r="C700" s="13"/>
       <c r="D700" s="9"/>
@@ -7426,7 +9184,7 @@
       <c r="H700" s="10"/>
       <c r="I700" s="11"/>
     </row>
-    <row r="701" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B701" s="8"/>
       <c r="C701" s="13"/>
       <c r="D701" s="9"/>
@@ -7436,7 +9194,7 @@
       <c r="H701" s="10"/>
       <c r="I701" s="11"/>
     </row>
-    <row r="702" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B702" s="8"/>
       <c r="C702" s="13"/>
       <c r="D702" s="9"/>
@@ -7446,7 +9204,7 @@
       <c r="H702" s="10"/>
       <c r="I702" s="11"/>
     </row>
-    <row r="703" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B703" s="8"/>
       <c r="C703" s="13"/>
       <c r="D703" s="9"/>
@@ -7456,7 +9214,7 @@
       <c r="H703" s="10"/>
       <c r="I703" s="11"/>
     </row>
-    <row r="704" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B704" s="8"/>
       <c r="C704" s="13"/>
       <c r="D704" s="9"/>
@@ -7466,7 +9224,7 @@
       <c r="H704" s="10"/>
       <c r="I704" s="11"/>
     </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="705" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B705" s="8"/>
       <c r="C705" s="13"/>
       <c r="D705" s="9"/>
@@ -7476,7 +9234,7 @@
       <c r="H705" s="10"/>
       <c r="I705" s="11"/>
     </row>
-    <row r="706" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="706" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B706" s="8"/>
       <c r="C706" s="13"/>
       <c r="D706" s="9"/>
@@ -7486,7 +9244,7 @@
       <c r="H706" s="10"/>
       <c r="I706" s="11"/>
     </row>
-    <row r="707" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="707" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B707" s="8"/>
       <c r="C707" s="13"/>
       <c r="D707" s="9"/>
@@ -7496,7 +9254,7 @@
       <c r="H707" s="10"/>
       <c r="I707" s="11"/>
     </row>
-    <row r="708" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="708" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B708" s="8"/>
       <c r="C708" s="13"/>
       <c r="D708" s="9"/>
@@ -7506,7 +9264,7 @@
       <c r="H708" s="10"/>
       <c r="I708" s="11"/>
     </row>
-    <row r="709" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="709" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B709" s="8"/>
       <c r="C709" s="13"/>
       <c r="D709" s="9"/>
@@ -7516,7 +9274,7 @@
       <c r="H709" s="10"/>
       <c r="I709" s="11"/>
     </row>
-    <row r="710" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="710" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B710" s="8"/>
       <c r="C710" s="13"/>
       <c r="D710" s="9"/>
@@ -7526,7 +9284,7 @@
       <c r="H710" s="10"/>
       <c r="I710" s="11"/>
     </row>
-    <row r="711" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="711" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B711" s="8"/>
       <c r="C711" s="13"/>
       <c r="D711" s="9"/>
@@ -7536,7 +9294,7 @@
       <c r="H711" s="10"/>
       <c r="I711" s="11"/>
     </row>
-    <row r="712" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="712" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B712" s="8"/>
       <c r="C712" s="13"/>
       <c r="D712" s="9"/>
@@ -7546,7 +9304,7 @@
       <c r="H712" s="10"/>
       <c r="I712" s="11"/>
     </row>
-    <row r="713" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="713" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B713" s="8"/>
       <c r="C713" s="13"/>
       <c r="D713" s="9"/>
@@ -7556,7 +9314,7 @@
       <c r="H713" s="10"/>
       <c r="I713" s="11"/>
     </row>
-    <row r="714" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="714" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B714" s="8"/>
       <c r="C714" s="13"/>
       <c r="D714" s="9"/>
@@ -7566,7 +9324,7 @@
       <c r="H714" s="10"/>
       <c r="I714" s="11"/>
     </row>
-    <row r="715" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="715" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B715" s="8"/>
       <c r="C715" s="13"/>
       <c r="D715" s="9"/>
@@ -7576,7 +9334,7 @@
       <c r="H715" s="10"/>
       <c r="I715" s="11"/>
     </row>
-    <row r="716" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="716" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B716" s="8"/>
       <c r="C716" s="13"/>
       <c r="D716" s="9"/>
@@ -7586,19 +9344,27 @@
       <c r="H716" s="10"/>
       <c r="I716" s="11"/>
     </row>
-    <row r="717" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="717" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B717" s="8"/>
       <c r="C717" s="13"/>
       <c r="D717" s="9"/>
       <c r="E717" s="7"/>
       <c r="F717" s="10"/>
       <c r="G717" s="10"/>
       <c r="H717" s="10"/>
-    </row>
-    <row r="718" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A718" s="16"/>
+      <c r="I717" s="11"/>
+    </row>
+    <row r="718" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B718" s="8"/>
       <c r="C718" s="13"/>
-    </row>
-    <row r="719" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D718" s="9"/>
+      <c r="E718" s="7"/>
+      <c r="F718" s="10"/>
+      <c r="G718" s="10"/>
+      <c r="H718" s="10"/>
+      <c r="I718" s="11"/>
+    </row>
+    <row r="719" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B719" s="8"/>
       <c r="C719" s="13"/>
       <c r="D719" s="9"/>
@@ -7608,7 +9374,7 @@
       <c r="H719" s="10"/>
       <c r="I719" s="11"/>
     </row>
-    <row r="720" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="720" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B720" s="8"/>
       <c r="C720" s="13"/>
       <c r="D720" s="9"/>
@@ -8258,7 +10024,7 @@
       <c r="H784" s="10"/>
       <c r="I784" s="11"/>
     </row>
-    <row r="785" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B785" s="8"/>
       <c r="C785" s="13"/>
       <c r="D785" s="9"/>
@@ -8268,7 +10034,7 @@
       <c r="H785" s="10"/>
       <c r="I785" s="11"/>
     </row>
-    <row r="786" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B786" s="8"/>
       <c r="C786" s="13"/>
       <c r="D786" s="9"/>
@@ -8278,7 +10044,7 @@
       <c r="H786" s="10"/>
       <c r="I786" s="11"/>
     </row>
-    <row r="787" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B787" s="8"/>
       <c r="C787" s="13"/>
       <c r="D787" s="9"/>
@@ -8288,27 +10054,19 @@
       <c r="H787" s="10"/>
       <c r="I787" s="11"/>
     </row>
-    <row r="788" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B788" s="8"/>
+    <row r="788" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C788" s="13"/>
       <c r="D788" s="9"/>
       <c r="E788" s="7"/>
       <c r="F788" s="10"/>
       <c r="G788" s="10"/>
       <c r="H788" s="10"/>
-      <c r="I788" s="11"/>
-    </row>
-    <row r="789" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B789" s="8"/>
+    </row>
+    <row r="789" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A789" s="16"/>
       <c r="C789" s="13"/>
-      <c r="D789" s="9"/>
-      <c r="E789" s="7"/>
-      <c r="F789" s="10"/>
-      <c r="G789" s="10"/>
-      <c r="H789" s="10"/>
-      <c r="I789" s="11"/>
-    </row>
-    <row r="790" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="790" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B790" s="8"/>
       <c r="C790" s="13"/>
       <c r="D790" s="9"/>
@@ -8318,7 +10076,7 @@
       <c r="H790" s="10"/>
       <c r="I790" s="11"/>
     </row>
-    <row r="791" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B791" s="8"/>
       <c r="C791" s="13"/>
       <c r="D791" s="9"/>
@@ -8328,7 +10086,7 @@
       <c r="H791" s="10"/>
       <c r="I791" s="11"/>
     </row>
-    <row r="792" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B792" s="8"/>
       <c r="C792" s="13"/>
       <c r="D792" s="9"/>
@@ -8338,7 +10096,7 @@
       <c r="H792" s="10"/>
       <c r="I792" s="11"/>
     </row>
-    <row r="793" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B793" s="8"/>
       <c r="C793" s="13"/>
       <c r="D793" s="9"/>
@@ -8348,7 +10106,7 @@
       <c r="H793" s="10"/>
       <c r="I793" s="11"/>
     </row>
-    <row r="794" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B794" s="8"/>
       <c r="C794" s="13"/>
       <c r="D794" s="9"/>
@@ -8358,7 +10116,7 @@
       <c r="H794" s="10"/>
       <c r="I794" s="11"/>
     </row>
-    <row r="795" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B795" s="8"/>
       <c r="C795" s="13"/>
       <c r="D795" s="9"/>
@@ -8368,7 +10126,7 @@
       <c r="H795" s="10"/>
       <c r="I795" s="11"/>
     </row>
-    <row r="796" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B796" s="8"/>
       <c r="C796" s="13"/>
       <c r="D796" s="9"/>
@@ -8378,7 +10136,7 @@
       <c r="H796" s="10"/>
       <c r="I796" s="11"/>
     </row>
-    <row r="797" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B797" s="8"/>
       <c r="C797" s="13"/>
       <c r="D797" s="9"/>
@@ -8388,7 +10146,7 @@
       <c r="H797" s="10"/>
       <c r="I797" s="11"/>
     </row>
-    <row r="798" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B798" s="8"/>
       <c r="C798" s="13"/>
       <c r="D798" s="9"/>
@@ -8398,7 +10156,7 @@
       <c r="H798" s="10"/>
       <c r="I798" s="11"/>
     </row>
-    <row r="799" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B799" s="8"/>
       <c r="C799" s="13"/>
       <c r="D799" s="9"/>
@@ -8408,7 +10166,7 @@
       <c r="H799" s="10"/>
       <c r="I799" s="11"/>
     </row>
-    <row r="800" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B800" s="8"/>
       <c r="C800" s="13"/>
       <c r="D800" s="9"/>
@@ -8569,18 +10327,26 @@
       <c r="I815" s="11"/>
     </row>
     <row r="816" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B816" s="8"/>
       <c r="C816" s="13"/>
       <c r="D816" s="9"/>
       <c r="E816" s="7"/>
       <c r="F816" s="10"/>
       <c r="G816" s="10"/>
       <c r="H816" s="10"/>
-    </row>
-    <row r="817" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A817" s="16"/>
+      <c r="I816" s="11"/>
+    </row>
+    <row r="817" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B817" s="8"/>
       <c r="C817" s="13"/>
-    </row>
-    <row r="818" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D817" s="9"/>
+      <c r="E817" s="7"/>
+      <c r="F817" s="10"/>
+      <c r="G817" s="10"/>
+      <c r="H817" s="10"/>
+      <c r="I817" s="11"/>
+    </row>
+    <row r="818" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B818" s="8"/>
       <c r="C818" s="13"/>
       <c r="D818" s="9"/>
@@ -8590,7 +10356,7 @@
       <c r="H818" s="10"/>
       <c r="I818" s="11"/>
     </row>
-    <row r="819" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="819" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B819" s="8"/>
       <c r="C819" s="13"/>
       <c r="D819" s="9"/>
@@ -8600,7 +10366,7 @@
       <c r="H819" s="10"/>
       <c r="I819" s="11"/>
     </row>
-    <row r="820" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="820" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B820" s="8"/>
       <c r="C820" s="13"/>
       <c r="D820" s="9"/>
@@ -8610,7 +10376,7 @@
       <c r="H820" s="10"/>
       <c r="I820" s="11"/>
     </row>
-    <row r="821" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="821" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B821" s="8"/>
       <c r="C821" s="13"/>
       <c r="D821" s="9"/>
@@ -8620,7 +10386,7 @@
       <c r="H821" s="10"/>
       <c r="I821" s="11"/>
     </row>
-    <row r="822" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="822" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B822" s="8"/>
       <c r="C822" s="13"/>
       <c r="D822" s="9"/>
@@ -8630,7 +10396,7 @@
       <c r="H822" s="10"/>
       <c r="I822" s="11"/>
     </row>
-    <row r="823" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="823" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B823" s="8"/>
       <c r="C823" s="13"/>
       <c r="D823" s="9"/>
@@ -8640,7 +10406,7 @@
       <c r="H823" s="10"/>
       <c r="I823" s="11"/>
     </row>
-    <row r="824" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="824" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B824" s="8"/>
       <c r="C824" s="13"/>
       <c r="D824" s="9"/>
@@ -8650,7 +10416,7 @@
       <c r="H824" s="10"/>
       <c r="I824" s="11"/>
     </row>
-    <row r="825" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="825" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B825" s="8"/>
       <c r="C825" s="13"/>
       <c r="D825" s="9"/>
@@ -8660,7 +10426,7 @@
       <c r="H825" s="10"/>
       <c r="I825" s="11"/>
     </row>
-    <row r="826" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="826" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B826" s="8"/>
       <c r="C826" s="13"/>
       <c r="D826" s="9"/>
@@ -8670,7 +10436,7 @@
       <c r="H826" s="10"/>
       <c r="I826" s="11"/>
     </row>
-    <row r="827" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="827" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B827" s="8"/>
       <c r="C827" s="13"/>
       <c r="D827" s="9"/>
@@ -8680,7 +10446,7 @@
       <c r="H827" s="10"/>
       <c r="I827" s="11"/>
     </row>
-    <row r="828" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="828" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B828" s="8"/>
       <c r="C828" s="13"/>
       <c r="D828" s="9"/>
@@ -8690,7 +10456,7 @@
       <c r="H828" s="10"/>
       <c r="I828" s="11"/>
     </row>
-    <row r="829" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="829" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B829" s="8"/>
       <c r="C829" s="13"/>
       <c r="D829" s="9"/>
@@ -8700,7 +10466,7 @@
       <c r="H829" s="10"/>
       <c r="I829" s="11"/>
     </row>
-    <row r="830" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="830" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B830" s="8"/>
       <c r="C830" s="13"/>
       <c r="D830" s="9"/>
@@ -8710,7 +10476,7 @@
       <c r="H830" s="10"/>
       <c r="I830" s="11"/>
     </row>
-    <row r="831" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="831" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B831" s="8"/>
       <c r="C831" s="13"/>
       <c r="D831" s="9"/>
@@ -8720,7 +10486,7 @@
       <c r="H831" s="10"/>
       <c r="I831" s="11"/>
     </row>
-    <row r="832" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="832" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B832" s="8"/>
       <c r="C832" s="13"/>
       <c r="D832" s="9"/>
@@ -9050,7 +10816,7 @@
       <c r="H864" s="10"/>
       <c r="I864" s="11"/>
     </row>
-    <row r="865" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B865" s="8"/>
       <c r="C865" s="13"/>
       <c r="D865" s="9"/>
@@ -9060,7 +10826,7 @@
       <c r="H865" s="10"/>
       <c r="I865" s="11"/>
     </row>
-    <row r="866" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B866" s="8"/>
       <c r="C866" s="13"/>
       <c r="D866" s="9"/>
@@ -9070,7 +10836,7 @@
       <c r="H866" s="10"/>
       <c r="I866" s="11"/>
     </row>
-    <row r="867" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B867" s="8"/>
       <c r="C867" s="13"/>
       <c r="D867" s="9"/>
@@ -9080,7 +10846,7 @@
       <c r="H867" s="10"/>
       <c r="I867" s="11"/>
     </row>
-    <row r="868" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B868" s="8"/>
       <c r="C868" s="13"/>
       <c r="D868" s="9"/>
@@ -9090,7 +10856,7 @@
       <c r="H868" s="10"/>
       <c r="I868" s="11"/>
     </row>
-    <row r="869" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B869" s="8"/>
       <c r="C869" s="13"/>
       <c r="D869" s="9"/>
@@ -9100,7 +10866,7 @@
       <c r="H869" s="10"/>
       <c r="I869" s="11"/>
     </row>
-    <row r="870" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B870" s="8"/>
       <c r="C870" s="13"/>
       <c r="D870" s="9"/>
@@ -9110,7 +10876,7 @@
       <c r="H870" s="10"/>
       <c r="I870" s="11"/>
     </row>
-    <row r="871" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B871" s="8"/>
       <c r="C871" s="13"/>
       <c r="D871" s="9"/>
@@ -9120,27 +10886,19 @@
       <c r="H871" s="10"/>
       <c r="I871" s="11"/>
     </row>
-    <row r="872" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B872" s="8"/>
+    <row r="872" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C872" s="13"/>
       <c r="D872" s="9"/>
       <c r="E872" s="7"/>
       <c r="F872" s="10"/>
       <c r="G872" s="10"/>
       <c r="H872" s="10"/>
-      <c r="I872" s="11"/>
-    </row>
-    <row r="873" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B873" s="8"/>
+    </row>
+    <row r="873" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A873" s="16"/>
       <c r="C873" s="13"/>
-      <c r="D873" s="9"/>
-      <c r="E873" s="7"/>
-      <c r="F873" s="10"/>
-      <c r="G873" s="10"/>
-      <c r="H873" s="10"/>
-      <c r="I873" s="11"/>
-    </row>
-    <row r="874" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="874" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B874" s="8"/>
       <c r="C874" s="13"/>
       <c r="D874" s="9"/>
@@ -9150,7 +10908,7 @@
       <c r="H874" s="10"/>
       <c r="I874" s="11"/>
     </row>
-    <row r="875" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B875" s="8"/>
       <c r="C875" s="13"/>
       <c r="D875" s="9"/>
@@ -9160,7 +10918,7 @@
       <c r="H875" s="10"/>
       <c r="I875" s="11"/>
     </row>
-    <row r="876" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B876" s="8"/>
       <c r="C876" s="13"/>
       <c r="D876" s="9"/>
@@ -9170,7 +10928,7 @@
       <c r="H876" s="10"/>
       <c r="I876" s="11"/>
     </row>
-    <row r="877" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B877" s="8"/>
       <c r="C877" s="13"/>
       <c r="D877" s="9"/>
@@ -9180,7 +10938,7 @@
       <c r="H877" s="10"/>
       <c r="I877" s="11"/>
     </row>
-    <row r="878" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B878" s="8"/>
       <c r="C878" s="13"/>
       <c r="D878" s="9"/>
@@ -9190,7 +10948,7 @@
       <c r="H878" s="10"/>
       <c r="I878" s="11"/>
     </row>
-    <row r="879" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B879" s="8"/>
       <c r="C879" s="13"/>
       <c r="D879" s="9"/>
@@ -9200,7 +10958,7 @@
       <c r="H879" s="10"/>
       <c r="I879" s="11"/>
     </row>
-    <row r="880" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B880" s="8"/>
       <c r="C880" s="13"/>
       <c r="D880" s="9"/>
@@ -9370,7 +11128,7 @@
       <c r="H896" s="10"/>
       <c r="I896" s="11"/>
     </row>
-    <row r="897" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="897" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B897" s="8"/>
       <c r="C897" s="13"/>
       <c r="D897" s="9"/>
@@ -9380,7 +11138,7 @@
       <c r="H897" s="10"/>
       <c r="I897" s="11"/>
     </row>
-    <row r="898" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="898" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B898" s="8"/>
       <c r="C898" s="13"/>
       <c r="D898" s="9"/>
@@ -9390,7 +11148,7 @@
       <c r="H898" s="10"/>
       <c r="I898" s="11"/>
     </row>
-    <row r="899" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="899" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B899" s="8"/>
       <c r="C899" s="13"/>
       <c r="D899" s="9"/>
@@ -9400,19 +11158,27 @@
       <c r="H899" s="10"/>
       <c r="I899" s="11"/>
     </row>
-    <row r="900" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="900" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B900" s="8"/>
       <c r="C900" s="13"/>
       <c r="D900" s="9"/>
       <c r="E900" s="7"/>
       <c r="F900" s="10"/>
       <c r="G900" s="10"/>
       <c r="H900" s="10"/>
-    </row>
-    <row r="901" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A901" s="16"/>
+      <c r="I900" s="11"/>
+    </row>
+    <row r="901" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B901" s="8"/>
       <c r="C901" s="13"/>
-    </row>
-    <row r="902" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D901" s="9"/>
+      <c r="E901" s="7"/>
+      <c r="F901" s="10"/>
+      <c r="G901" s="10"/>
+      <c r="H901" s="10"/>
+      <c r="I901" s="11"/>
+    </row>
+    <row r="902" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B902" s="8"/>
       <c r="C902" s="13"/>
       <c r="D902" s="9"/>
@@ -9422,7 +11188,7 @@
       <c r="H902" s="10"/>
       <c r="I902" s="11"/>
     </row>
-    <row r="903" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="903" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B903" s="8"/>
       <c r="C903" s="13"/>
       <c r="D903" s="9"/>
@@ -9432,7 +11198,7 @@
       <c r="H903" s="10"/>
       <c r="I903" s="11"/>
     </row>
-    <row r="904" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="904" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B904" s="8"/>
       <c r="C904" s="13"/>
       <c r="D904" s="9"/>
@@ -9442,7 +11208,7 @@
       <c r="H904" s="10"/>
       <c r="I904" s="11"/>
     </row>
-    <row r="905" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="905" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B905" s="8"/>
       <c r="C905" s="13"/>
       <c r="D905" s="9"/>
@@ -9452,7 +11218,7 @@
       <c r="H905" s="10"/>
       <c r="I905" s="11"/>
     </row>
-    <row r="906" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="906" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B906" s="8"/>
       <c r="C906" s="13"/>
       <c r="D906" s="9"/>
@@ -9462,7 +11228,7 @@
       <c r="H906" s="10"/>
       <c r="I906" s="11"/>
     </row>
-    <row r="907" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="907" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B907" s="8"/>
       <c r="C907" s="13"/>
       <c r="D907" s="9"/>
@@ -9472,7 +11238,7 @@
       <c r="H907" s="10"/>
       <c r="I907" s="11"/>
     </row>
-    <row r="908" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="908" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B908" s="8"/>
       <c r="C908" s="13"/>
       <c r="D908" s="9"/>
@@ -9482,7 +11248,7 @@
       <c r="H908" s="10"/>
       <c r="I908" s="11"/>
     </row>
-    <row r="909" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="909" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B909" s="8"/>
       <c r="C909" s="13"/>
       <c r="D909" s="9"/>
@@ -9492,7 +11258,7 @@
       <c r="H909" s="10"/>
       <c r="I909" s="11"/>
     </row>
-    <row r="910" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="910" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B910" s="8"/>
       <c r="C910" s="13"/>
       <c r="D910" s="9"/>
@@ -9502,7 +11268,7 @@
       <c r="H910" s="10"/>
       <c r="I910" s="11"/>
     </row>
-    <row r="911" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="911" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B911" s="8"/>
       <c r="C911" s="13"/>
       <c r="D911" s="9"/>
@@ -9512,7 +11278,7 @@
       <c r="H911" s="10"/>
       <c r="I911" s="11"/>
     </row>
-    <row r="912" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="912" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B912" s="8"/>
       <c r="C912" s="13"/>
       <c r="D912" s="9"/>
@@ -9842,7 +11608,7 @@
       <c r="H944" s="10"/>
       <c r="I944" s="11"/>
     </row>
-    <row r="945" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B945" s="8"/>
       <c r="C945" s="13"/>
       <c r="D945" s="9"/>
@@ -9852,7 +11618,7 @@
       <c r="H945" s="10"/>
       <c r="I945" s="11"/>
     </row>
-    <row r="946" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B946" s="8"/>
       <c r="C946" s="13"/>
       <c r="D946" s="9"/>
@@ -9862,7 +11628,7 @@
       <c r="H946" s="10"/>
       <c r="I946" s="11"/>
     </row>
-    <row r="947" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B947" s="8"/>
       <c r="C947" s="13"/>
       <c r="D947" s="9"/>
@@ -9872,7 +11638,7 @@
       <c r="H947" s="10"/>
       <c r="I947" s="11"/>
     </row>
-    <row r="948" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B948" s="8"/>
       <c r="C948" s="13"/>
       <c r="D948" s="9"/>
@@ -9882,7 +11648,7 @@
       <c r="H948" s="10"/>
       <c r="I948" s="11"/>
     </row>
-    <row r="949" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B949" s="8"/>
       <c r="C949" s="13"/>
       <c r="D949" s="9"/>
@@ -9892,27 +11658,19 @@
       <c r="H949" s="10"/>
       <c r="I949" s="11"/>
     </row>
-    <row r="950" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B950" s="8"/>
+    <row r="950" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C950" s="13"/>
       <c r="D950" s="9"/>
       <c r="E950" s="7"/>
       <c r="F950" s="10"/>
       <c r="G950" s="10"/>
       <c r="H950" s="10"/>
-      <c r="I950" s="11"/>
-    </row>
-    <row r="951" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B951" s="8"/>
+    </row>
+    <row r="951" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A951" s="16"/>
       <c r="C951" s="13"/>
-      <c r="D951" s="9"/>
-      <c r="E951" s="7"/>
-      <c r="F951" s="10"/>
-      <c r="G951" s="10"/>
-      <c r="H951" s="10"/>
-      <c r="I951" s="11"/>
-    </row>
-    <row r="952" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="952" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B952" s="8"/>
       <c r="C952" s="13"/>
       <c r="D952" s="9"/>
@@ -9922,7 +11680,7 @@
       <c r="H952" s="10"/>
       <c r="I952" s="11"/>
     </row>
-    <row r="953" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B953" s="8"/>
       <c r="C953" s="13"/>
       <c r="D953" s="9"/>
@@ -9932,7 +11690,7 @@
       <c r="H953" s="10"/>
       <c r="I953" s="11"/>
     </row>
-    <row r="954" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B954" s="8"/>
       <c r="C954" s="13"/>
       <c r="D954" s="9"/>
@@ -9942,7 +11700,7 @@
       <c r="H954" s="10"/>
       <c r="I954" s="11"/>
     </row>
-    <row r="955" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B955" s="8"/>
       <c r="C955" s="13"/>
       <c r="D955" s="9"/>
@@ -9952,7 +11710,7 @@
       <c r="H955" s="10"/>
       <c r="I955" s="11"/>
     </row>
-    <row r="956" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B956" s="8"/>
       <c r="C956" s="13"/>
       <c r="D956" s="9"/>
@@ -9962,7 +11720,7 @@
       <c r="H956" s="10"/>
       <c r="I956" s="11"/>
     </row>
-    <row r="957" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B957" s="8"/>
       <c r="C957" s="13"/>
       <c r="D957" s="9"/>
@@ -9972,7 +11730,7 @@
       <c r="H957" s="10"/>
       <c r="I957" s="11"/>
     </row>
-    <row r="958" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B958" s="8"/>
       <c r="C958" s="13"/>
       <c r="D958" s="9"/>
@@ -9982,7 +11740,7 @@
       <c r="H958" s="10"/>
       <c r="I958" s="11"/>
     </row>
-    <row r="959" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B959" s="8"/>
       <c r="C959" s="13"/>
       <c r="D959" s="9"/>
@@ -9992,7 +11750,7 @@
       <c r="H959" s="10"/>
       <c r="I959" s="11"/>
     </row>
-    <row r="960" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B960" s="8"/>
       <c r="C960" s="13"/>
       <c r="D960" s="9"/>
@@ -10162,7 +11920,7 @@
       <c r="H976" s="10"/>
       <c r="I976" s="11"/>
     </row>
-    <row r="977" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="977" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B977" s="8"/>
       <c r="C977" s="13"/>
       <c r="D977" s="9"/>
@@ -10172,19 +11930,27 @@
       <c r="H977" s="10"/>
       <c r="I977" s="11"/>
     </row>
-    <row r="978" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="978" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B978" s="8"/>
       <c r="C978" s="13"/>
       <c r="D978" s="9"/>
       <c r="E978" s="7"/>
       <c r="F978" s="10"/>
       <c r="G978" s="10"/>
       <c r="H978" s="10"/>
-    </row>
-    <row r="979" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A979" s="16"/>
+      <c r="I978" s="11"/>
+    </row>
+    <row r="979" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B979" s="8"/>
       <c r="C979" s="13"/>
-    </row>
-    <row r="980" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D979" s="9"/>
+      <c r="E979" s="7"/>
+      <c r="F979" s="10"/>
+      <c r="G979" s="10"/>
+      <c r="H979" s="10"/>
+      <c r="I979" s="11"/>
+    </row>
+    <row r="980" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B980" s="8"/>
       <c r="C980" s="13"/>
       <c r="D980" s="9"/>
@@ -10194,7 +11960,7 @@
       <c r="H980" s="10"/>
       <c r="I980" s="11"/>
     </row>
-    <row r="981" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="981" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B981" s="8"/>
       <c r="C981" s="13"/>
       <c r="D981" s="9"/>
@@ -10204,7 +11970,7 @@
       <c r="H981" s="10"/>
       <c r="I981" s="11"/>
     </row>
-    <row r="982" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="982" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B982" s="8"/>
       <c r="C982" s="13"/>
       <c r="D982" s="9"/>
@@ -10214,7 +11980,7 @@
       <c r="H982" s="10"/>
       <c r="I982" s="11"/>
     </row>
-    <row r="983" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="983" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B983" s="8"/>
       <c r="C983" s="13"/>
       <c r="D983" s="9"/>
@@ -10224,7 +11990,7 @@
       <c r="H983" s="10"/>
       <c r="I983" s="11"/>
     </row>
-    <row r="984" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="984" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B984" s="8"/>
       <c r="C984" s="13"/>
       <c r="D984" s="9"/>
@@ -10234,7 +12000,7 @@
       <c r="H984" s="10"/>
       <c r="I984" s="11"/>
     </row>
-    <row r="985" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="985" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B985" s="8"/>
       <c r="C985" s="13"/>
       <c r="D985" s="9"/>
@@ -10244,7 +12010,7 @@
       <c r="H985" s="10"/>
       <c r="I985" s="11"/>
     </row>
-    <row r="986" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="986" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B986" s="8"/>
       <c r="C986" s="13"/>
       <c r="D986" s="9"/>
@@ -10254,7 +12020,7 @@
       <c r="H986" s="10"/>
       <c r="I986" s="11"/>
     </row>
-    <row r="987" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="987" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B987" s="8"/>
       <c r="C987" s="13"/>
       <c r="D987" s="9"/>
@@ -10264,7 +12030,7 @@
       <c r="H987" s="10"/>
       <c r="I987" s="11"/>
     </row>
-    <row r="988" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="988" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B988" s="8"/>
       <c r="C988" s="13"/>
       <c r="D988" s="9"/>
@@ -10274,7 +12040,7 @@
       <c r="H988" s="10"/>
       <c r="I988" s="11"/>
     </row>
-    <row r="989" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="989" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B989" s="8"/>
       <c r="C989" s="13"/>
       <c r="D989" s="9"/>
@@ -10284,7 +12050,7 @@
       <c r="H989" s="10"/>
       <c r="I989" s="11"/>
     </row>
-    <row r="990" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="990" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B990" s="8"/>
       <c r="C990" s="13"/>
       <c r="D990" s="9"/>
@@ -10294,7 +12060,7 @@
       <c r="H990" s="10"/>
       <c r="I990" s="11"/>
     </row>
-    <row r="991" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="991" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B991" s="8"/>
       <c r="C991" s="13"/>
       <c r="D991" s="9"/>
@@ -10304,7 +12070,7 @@
       <c r="H991" s="10"/>
       <c r="I991" s="11"/>
     </row>
-    <row r="992" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="992" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B992" s="8"/>
       <c r="C992" s="13"/>
       <c r="D992" s="9"/>
@@ -10474,7 +12240,7 @@
       <c r="H1008" s="10"/>
       <c r="I1008" s="11"/>
     </row>
-    <row r="1009" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1009" s="8"/>
       <c r="C1009" s="13"/>
       <c r="D1009" s="9"/>
@@ -10484,7 +12250,7 @@
       <c r="H1009" s="10"/>
       <c r="I1009" s="11"/>
     </row>
-    <row r="1010" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1010" s="8"/>
       <c r="C1010" s="13"/>
       <c r="D1010" s="9"/>
@@ -10494,7 +12260,7 @@
       <c r="H1010" s="10"/>
       <c r="I1010" s="11"/>
     </row>
-    <row r="1011" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1011" s="8"/>
       <c r="C1011" s="13"/>
       <c r="D1011" s="9"/>
@@ -10504,7 +12270,7 @@
       <c r="H1011" s="10"/>
       <c r="I1011" s="11"/>
     </row>
-    <row r="1012" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1012" s="8"/>
       <c r="C1012" s="13"/>
       <c r="D1012" s="9"/>
@@ -10514,7 +12280,7 @@
       <c r="H1012" s="10"/>
       <c r="I1012" s="11"/>
     </row>
-    <row r="1013" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1013" s="8"/>
       <c r="C1013" s="13"/>
       <c r="D1013" s="9"/>
@@ -10524,7 +12290,7 @@
       <c r="H1013" s="10"/>
       <c r="I1013" s="11"/>
     </row>
-    <row r="1014" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1014" s="8"/>
       <c r="C1014" s="13"/>
       <c r="D1014" s="9"/>
@@ -10534,7 +12300,7 @@
       <c r="H1014" s="10"/>
       <c r="I1014" s="11"/>
     </row>
-    <row r="1015" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1015" s="8"/>
       <c r="C1015" s="13"/>
       <c r="D1015" s="9"/>
@@ -10544,522 +12310,186 @@
       <c r="H1015" s="10"/>
       <c r="I1015" s="11"/>
     </row>
-    <row r="1016" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1016" s="8"/>
+    <row r="1016" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C1016" s="13"/>
       <c r="D1016" s="9"/>
       <c r="E1016" s="7"/>
       <c r="F1016" s="10"/>
       <c r="G1016" s="10"/>
       <c r="H1016" s="10"/>
-      <c r="I1016" s="11"/>
-    </row>
-    <row r="1017" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1017" s="8"/>
+    </row>
+    <row r="1017" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1017" s="16"/>
       <c r="C1017" s="13"/>
-      <c r="D1017" s="9"/>
-      <c r="E1017" s="7"/>
-      <c r="F1017" s="10"/>
-      <c r="G1017" s="10"/>
-      <c r="H1017" s="10"/>
-      <c r="I1017" s="11"/>
-    </row>
-    <row r="1018" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1018" s="8"/>
+    </row>
+    <row r="1018" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C1018" s="13"/>
       <c r="D1018" s="9"/>
       <c r="E1018" s="7"/>
       <c r="F1018" s="10"/>
       <c r="G1018" s="10"/>
       <c r="H1018" s="10"/>
-      <c r="I1018" s="11"/>
-    </row>
-    <row r="1019" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1019" s="8"/>
+    </row>
+    <row r="1019" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C1019" s="13"/>
-      <c r="D1019" s="9"/>
-      <c r="E1019" s="7"/>
-      <c r="F1019" s="10"/>
-      <c r="G1019" s="10"/>
-      <c r="H1019" s="10"/>
-      <c r="I1019" s="11"/>
-    </row>
-    <row r="1020" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1020" s="8"/>
+    </row>
+    <row r="1020" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C1020" s="13"/>
-      <c r="D1020" s="9"/>
-      <c r="E1020" s="7"/>
-      <c r="F1020" s="10"/>
-      <c r="G1020" s="10"/>
-      <c r="H1020" s="10"/>
-      <c r="I1020" s="11"/>
-    </row>
-    <row r="1021" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1021" s="8"/>
+    </row>
+    <row r="1021" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C1021" s="13"/>
-      <c r="D1021" s="9"/>
-      <c r="E1021" s="7"/>
-      <c r="F1021" s="10"/>
-      <c r="G1021" s="10"/>
-      <c r="H1021" s="10"/>
-      <c r="I1021" s="11"/>
-    </row>
-    <row r="1022" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1022" s="8"/>
+    </row>
+    <row r="1022" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C1022" s="13"/>
-      <c r="D1022" s="9"/>
-      <c r="E1022" s="7"/>
-      <c r="F1022" s="10"/>
-      <c r="G1022" s="10"/>
-      <c r="H1022" s="10"/>
-      <c r="I1022" s="11"/>
-    </row>
-    <row r="1023" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1023" s="8"/>
+    </row>
+    <row r="1023" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C1023" s="13"/>
-      <c r="D1023" s="9"/>
-      <c r="E1023" s="7"/>
-      <c r="F1023" s="10"/>
-      <c r="G1023" s="10"/>
-      <c r="H1023" s="10"/>
-      <c r="I1023" s="11"/>
-    </row>
-    <row r="1024" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1024" s="8"/>
+    </row>
+    <row r="1024" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C1024" s="13"/>
-      <c r="D1024" s="9"/>
-      <c r="E1024" s="7"/>
-      <c r="F1024" s="10"/>
-      <c r="G1024" s="10"/>
-      <c r="H1024" s="10"/>
-      <c r="I1024" s="11"/>
-    </row>
-    <row r="1025" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1025" s="8"/>
+    </row>
+    <row r="1025" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1025" s="13"/>
-      <c r="D1025" s="9"/>
-      <c r="E1025" s="7"/>
-      <c r="F1025" s="10"/>
-      <c r="G1025" s="10"/>
-      <c r="H1025" s="10"/>
-      <c r="I1025" s="11"/>
-    </row>
-    <row r="1026" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1026" s="8"/>
+    </row>
+    <row r="1026" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1026" s="13"/>
-      <c r="D1026" s="9"/>
-      <c r="E1026" s="7"/>
-      <c r="F1026" s="10"/>
-      <c r="G1026" s="10"/>
-      <c r="H1026" s="10"/>
-      <c r="I1026" s="11"/>
-    </row>
-    <row r="1027" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1027" s="8"/>
+    </row>
+    <row r="1027" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1027" s="13"/>
-      <c r="D1027" s="9"/>
-      <c r="E1027" s="7"/>
-      <c r="F1027" s="10"/>
-      <c r="G1027" s="10"/>
-      <c r="H1027" s="10"/>
-      <c r="I1027" s="11"/>
-    </row>
-    <row r="1028" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1028" s="8"/>
+    </row>
+    <row r="1028" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1028" s="13"/>
-      <c r="D1028" s="9"/>
-      <c r="E1028" s="7"/>
-      <c r="F1028" s="10"/>
-      <c r="G1028" s="10"/>
-      <c r="H1028" s="10"/>
-      <c r="I1028" s="11"/>
-    </row>
-    <row r="1029" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1029" s="8"/>
+    </row>
+    <row r="1029" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1029" s="13"/>
-      <c r="D1029" s="9"/>
-      <c r="E1029" s="7"/>
-      <c r="F1029" s="10"/>
-      <c r="G1029" s="10"/>
-      <c r="H1029" s="10"/>
-      <c r="I1029" s="11"/>
-    </row>
-    <row r="1030" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1030" s="8"/>
+    </row>
+    <row r="1030" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1030" s="13"/>
-      <c r="D1030" s="9"/>
-      <c r="E1030" s="7"/>
-      <c r="F1030" s="10"/>
-      <c r="G1030" s="10"/>
-      <c r="H1030" s="10"/>
-      <c r="I1030" s="11"/>
-    </row>
-    <row r="1031" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1031" s="8"/>
+    </row>
+    <row r="1031" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1031" s="13"/>
-      <c r="D1031" s="9"/>
-      <c r="E1031" s="7"/>
-      <c r="F1031" s="10"/>
-      <c r="G1031" s="10"/>
-      <c r="H1031" s="10"/>
-      <c r="I1031" s="11"/>
-    </row>
-    <row r="1032" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1032" s="8"/>
+    </row>
+    <row r="1032" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1032" s="13"/>
-      <c r="D1032" s="9"/>
-      <c r="E1032" s="7"/>
-      <c r="F1032" s="10"/>
-      <c r="G1032" s="10"/>
-      <c r="H1032" s="10"/>
-      <c r="I1032" s="11"/>
-    </row>
-    <row r="1033" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1033" s="8"/>
+    </row>
+    <row r="1033" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1033" s="13"/>
-      <c r="D1033" s="9"/>
-      <c r="E1033" s="7"/>
-      <c r="F1033" s="10"/>
-      <c r="G1033" s="10"/>
-      <c r="H1033" s="10"/>
-      <c r="I1033" s="11"/>
-    </row>
-    <row r="1034" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1034" s="8"/>
+    </row>
+    <row r="1034" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1034" s="13"/>
-      <c r="D1034" s="9"/>
-      <c r="E1034" s="7"/>
-      <c r="F1034" s="10"/>
-      <c r="G1034" s="10"/>
-      <c r="H1034" s="10"/>
-      <c r="I1034" s="11"/>
-    </row>
-    <row r="1035" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1035" s="8"/>
+    </row>
+    <row r="1035" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1035" s="13"/>
-      <c r="D1035" s="9"/>
-      <c r="E1035" s="7"/>
-      <c r="F1035" s="10"/>
-      <c r="G1035" s="10"/>
-      <c r="H1035" s="10"/>
-      <c r="I1035" s="11"/>
-    </row>
-    <row r="1036" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1036" s="8"/>
+    </row>
+    <row r="1036" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1036" s="13"/>
-      <c r="D1036" s="9"/>
-      <c r="E1036" s="7"/>
-      <c r="F1036" s="10"/>
-      <c r="G1036" s="10"/>
-      <c r="H1036" s="10"/>
-      <c r="I1036" s="11"/>
-    </row>
-    <row r="1037" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1037" s="8"/>
+    </row>
+    <row r="1037" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1037" s="13"/>
-      <c r="D1037" s="9"/>
-      <c r="E1037" s="7"/>
-      <c r="F1037" s="10"/>
-      <c r="G1037" s="10"/>
-      <c r="H1037" s="10"/>
-      <c r="I1037" s="11"/>
-    </row>
-    <row r="1038" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1038" s="8"/>
+    </row>
+    <row r="1038" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1038" s="13"/>
-      <c r="D1038" s="9"/>
-      <c r="E1038" s="7"/>
-      <c r="F1038" s="10"/>
-      <c r="G1038" s="10"/>
-      <c r="H1038" s="10"/>
-      <c r="I1038" s="11"/>
-    </row>
-    <row r="1039" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1039" s="8"/>
+    </row>
+    <row r="1039" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1039" s="13"/>
-      <c r="D1039" s="9"/>
-      <c r="E1039" s="7"/>
-      <c r="F1039" s="10"/>
-      <c r="G1039" s="10"/>
-      <c r="H1039" s="10"/>
-      <c r="I1039" s="11"/>
-    </row>
-    <row r="1040" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1040" s="8"/>
+    </row>
+    <row r="1040" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1040" s="13"/>
-      <c r="D1040" s="9"/>
-      <c r="E1040" s="7"/>
-      <c r="F1040" s="10"/>
-      <c r="G1040" s="10"/>
-      <c r="H1040" s="10"/>
-      <c r="I1040" s="11"/>
-    </row>
-    <row r="1041" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1041" s="8"/>
+    </row>
+    <row r="1041" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1041" s="13"/>
-      <c r="D1041" s="9"/>
-      <c r="E1041" s="7"/>
-      <c r="F1041" s="10"/>
-      <c r="G1041" s="10"/>
-      <c r="H1041" s="10"/>
-      <c r="I1041" s="11"/>
-    </row>
-    <row r="1042" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1042" s="8"/>
+    </row>
+    <row r="1042" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1042" s="13"/>
-      <c r="D1042" s="9"/>
-      <c r="E1042" s="7"/>
-      <c r="F1042" s="10"/>
-      <c r="G1042" s="10"/>
-      <c r="H1042" s="10"/>
-      <c r="I1042" s="11"/>
-    </row>
-    <row r="1043" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1043" s="8"/>
+    </row>
+    <row r="1043" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1043" s="13"/>
-      <c r="D1043" s="9"/>
-      <c r="E1043" s="7"/>
-      <c r="F1043" s="10"/>
-      <c r="G1043" s="10"/>
-      <c r="H1043" s="10"/>
-      <c r="I1043" s="11"/>
-    </row>
-    <row r="1044" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1044" s="8"/>
+    </row>
+    <row r="1044" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1044" s="13"/>
-      <c r="D1044" s="9"/>
-      <c r="E1044" s="7"/>
-      <c r="F1044" s="10"/>
-      <c r="G1044" s="10"/>
-      <c r="H1044" s="10"/>
-      <c r="I1044" s="11"/>
-    </row>
-    <row r="1045" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1045" s="8"/>
+    </row>
+    <row r="1045" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1045" s="13"/>
-      <c r="D1045" s="9"/>
-      <c r="E1045" s="7"/>
-      <c r="F1045" s="10"/>
-      <c r="G1045" s="10"/>
-      <c r="H1045" s="10"/>
-      <c r="I1045" s="11"/>
-    </row>
-    <row r="1046" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1046" s="8"/>
+    </row>
+    <row r="1046" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1046" s="13"/>
-      <c r="D1046" s="9"/>
-      <c r="E1046" s="7"/>
-      <c r="F1046" s="10"/>
-      <c r="G1046" s="10"/>
-      <c r="H1046" s="10"/>
-      <c r="I1046" s="11"/>
-    </row>
-    <row r="1047" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1047" s="8"/>
+    </row>
+    <row r="1047" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1047" s="13"/>
-      <c r="D1047" s="9"/>
-      <c r="E1047" s="7"/>
-      <c r="F1047" s="10"/>
-      <c r="G1047" s="10"/>
-      <c r="H1047" s="10"/>
-      <c r="I1047" s="11"/>
-    </row>
-    <row r="1048" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1048" s="8"/>
+    </row>
+    <row r="1048" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1048" s="13"/>
-      <c r="D1048" s="9"/>
-      <c r="E1048" s="7"/>
-      <c r="F1048" s="10"/>
-      <c r="G1048" s="10"/>
-      <c r="H1048" s="10"/>
-      <c r="I1048" s="11"/>
-    </row>
-    <row r="1049" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1049" s="8"/>
+    </row>
+    <row r="1049" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1049" s="13"/>
-      <c r="D1049" s="9"/>
-      <c r="E1049" s="7"/>
-      <c r="F1049" s="10"/>
-      <c r="G1049" s="10"/>
-      <c r="H1049" s="10"/>
-      <c r="I1049" s="11"/>
-    </row>
-    <row r="1050" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1050" s="8"/>
+    </row>
+    <row r="1050" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1050" s="13"/>
-      <c r="D1050" s="9"/>
-      <c r="E1050" s="7"/>
-      <c r="F1050" s="10"/>
-      <c r="G1050" s="10"/>
-      <c r="H1050" s="10"/>
-      <c r="I1050" s="11"/>
-    </row>
-    <row r="1051" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1051" s="8"/>
+    </row>
+    <row r="1051" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1051" s="13"/>
-      <c r="D1051" s="9"/>
-      <c r="E1051" s="7"/>
-      <c r="F1051" s="10"/>
-      <c r="G1051" s="10"/>
-      <c r="H1051" s="10"/>
-      <c r="I1051" s="11"/>
-    </row>
-    <row r="1052" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1052" s="8"/>
+    </row>
+    <row r="1052" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1052" s="13"/>
-      <c r="D1052" s="9"/>
-      <c r="E1052" s="7"/>
-      <c r="F1052" s="10"/>
-      <c r="G1052" s="10"/>
-      <c r="H1052" s="10"/>
-      <c r="I1052" s="11"/>
-    </row>
-    <row r="1053" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1053" s="8"/>
+    </row>
+    <row r="1053" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1053" s="13"/>
-      <c r="D1053" s="9"/>
-      <c r="E1053" s="7"/>
-      <c r="F1053" s="10"/>
-      <c r="G1053" s="10"/>
-      <c r="H1053" s="10"/>
-      <c r="I1053" s="11"/>
-    </row>
-    <row r="1054" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1054" s="8"/>
+    </row>
+    <row r="1054" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1054" s="13"/>
-      <c r="D1054" s="9"/>
-      <c r="E1054" s="7"/>
-      <c r="F1054" s="10"/>
-      <c r="G1054" s="10"/>
-      <c r="H1054" s="10"/>
-      <c r="I1054" s="11"/>
-    </row>
-    <row r="1055" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1055" s="8"/>
+    </row>
+    <row r="1055" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1055" s="13"/>
-      <c r="D1055" s="9"/>
-      <c r="E1055" s="7"/>
-      <c r="F1055" s="10"/>
-      <c r="G1055" s="10"/>
-      <c r="H1055" s="10"/>
-      <c r="I1055" s="11"/>
-    </row>
-    <row r="1056" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1056" s="8"/>
+    </row>
+    <row r="1056" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1056" s="13"/>
-      <c r="D1056" s="9"/>
-      <c r="E1056" s="7"/>
-      <c r="F1056" s="10"/>
-      <c r="G1056" s="10"/>
-      <c r="H1056" s="10"/>
-      <c r="I1056" s="11"/>
-    </row>
-    <row r="1057" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1057" s="8"/>
+    </row>
+    <row r="1057" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1057" s="13"/>
-      <c r="D1057" s="9"/>
-      <c r="E1057" s="7"/>
-      <c r="F1057" s="10"/>
-      <c r="G1057" s="10"/>
-      <c r="H1057" s="10"/>
-      <c r="I1057" s="11"/>
-    </row>
-    <row r="1058" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1058" s="8"/>
+    </row>
+    <row r="1058" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1058" s="13"/>
-      <c r="D1058" s="9"/>
-      <c r="E1058" s="7"/>
-      <c r="F1058" s="10"/>
-      <c r="G1058" s="10"/>
-      <c r="H1058" s="10"/>
-      <c r="I1058" s="11"/>
-    </row>
-    <row r="1059" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1059" s="8"/>
+    </row>
+    <row r="1059" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1059" s="13"/>
-      <c r="D1059" s="9"/>
-      <c r="E1059" s="7"/>
-      <c r="F1059" s="10"/>
-      <c r="G1059" s="10"/>
-      <c r="H1059" s="10"/>
-      <c r="I1059" s="11"/>
-    </row>
-    <row r="1060" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1060" s="8"/>
+    </row>
+    <row r="1060" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1060" s="13"/>
-      <c r="D1060" s="9"/>
-      <c r="E1060" s="7"/>
-      <c r="F1060" s="10"/>
-      <c r="G1060" s="10"/>
-      <c r="H1060" s="10"/>
-      <c r="I1060" s="11"/>
-    </row>
-    <row r="1061" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1061" s="8"/>
+    </row>
+    <row r="1061" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1061" s="13"/>
-      <c r="D1061" s="9"/>
-      <c r="E1061" s="7"/>
-      <c r="F1061" s="10"/>
-      <c r="G1061" s="10"/>
-      <c r="H1061" s="10"/>
-      <c r="I1061" s="11"/>
-    </row>
-    <row r="1062" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1062" s="8"/>
+    </row>
+    <row r="1062" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1062" s="13"/>
-      <c r="D1062" s="9"/>
-      <c r="E1062" s="7"/>
-      <c r="F1062" s="10"/>
-      <c r="G1062" s="10"/>
-      <c r="H1062" s="10"/>
-      <c r="I1062" s="11"/>
-    </row>
-    <row r="1063" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1063" s="8"/>
+    </row>
+    <row r="1063" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1063" s="13"/>
-      <c r="D1063" s="9"/>
-      <c r="E1063" s="7"/>
-      <c r="F1063" s="10"/>
-      <c r="G1063" s="10"/>
-      <c r="H1063" s="10"/>
-      <c r="I1063" s="11"/>
-    </row>
-    <row r="1064" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1064" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1064" s="13"/>
-      <c r="D1064" s="9"/>
-      <c r="E1064" s="7"/>
-      <c r="F1064" s="10"/>
-      <c r="G1064" s="10"/>
-      <c r="H1064" s="10"/>
-    </row>
-    <row r="1065" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1065" s="16"/>
+    </row>
+    <row r="1065" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1065" s="13"/>
     </row>
-    <row r="1066" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1066" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1066" s="13"/>
-      <c r="D1066" s="9"/>
-      <c r="E1066" s="7"/>
-      <c r="F1066" s="10"/>
-      <c r="G1066" s="10"/>
-      <c r="H1066" s="10"/>
-    </row>
-    <row r="1067" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1067" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1067" s="13"/>
     </row>
-    <row r="1068" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1068" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1068" s="13"/>
     </row>
-    <row r="1069" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1069" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1069" s="13"/>
     </row>
-    <row r="1070" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1070" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1070" s="13"/>
     </row>
-    <row r="1071" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1071" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1071" s="13"/>
     </row>
-    <row r="1072" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1072" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C1072" s="13"/>
     </row>
     <row r="1073" spans="3:3" x14ac:dyDescent="0.25">
@@ -18770,4 +20200,234 @@
     <oddHeader>&amp;L&amp;"-,Bold"&amp;10Wijaya Holdings&amp;C&amp;"-,Bold"&amp;UCollection Report&amp;R&amp;10&amp;D  &amp;T  Page &amp;P of &amp;N</oddHeader>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.28515625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" style="22" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" style="22" customWidth="1"/>
+    <col min="11" max="19" width="9.140625" style="20"/>
+    <col min="20" max="20" width="14.140625" style="20" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:10" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+    </row>
+    <row r="31" spans="1:10" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+    </row>
+    <row r="32" spans="1:10" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="19"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;LWijaya Holdings&amp;CCollection Summery&amp;R&amp;D &amp;T</oddHeader>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>